--- a/5. WS/1. Bộ phận bảo hành/2. Báo cáo công việc/Năm 2021/Thang4/Thang4.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/2. Báo cáo công việc/Năm 2021/Thang4/Thang4.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\VNET\5. WS\1. Bộ phận bảo hành\2. Báo cáo công việc\Năm 2021\Thang 4\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PhongBaoHanh\VNET\5. WS\1. Bộ phận bảo hành\2. Báo cáo công việc\Năm 2021\Thang4\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -559,10 +559,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -656,6 +656,12 @@
         <v>61</v>
       </c>
     </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G7">
+        <f>SUM(G5:G6)</f>
+        <v>171</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="10">
     <mergeCell ref="A5:B5"/>
